--- a/Code/Results/Cases/Case_1_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.47290818308333</v>
+        <v>10.01521461658088</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.340839681391388</v>
+        <v>2.867914741673182</v>
       </c>
       <c r="E2">
-        <v>12.03729440831279</v>
+        <v>11.87007386421528</v>
       </c>
       <c r="F2">
-        <v>38.25590228356975</v>
+        <v>25.20448700891164</v>
       </c>
       <c r="G2">
-        <v>60.11506465475203</v>
+        <v>34.39733788583185</v>
       </c>
       <c r="H2">
-        <v>14.92108826808128</v>
+        <v>13.15783889656919</v>
       </c>
       <c r="I2">
-        <v>30.92296942000105</v>
+        <v>23.05117789907865</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41.52183241176112</v>
+        <v>25.17112204216522</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.50923066241439</v>
+        <v>9.57139117380574</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.089681533469745</v>
+        <v>2.895077600296976</v>
       </c>
       <c r="E3">
-        <v>11.57983915201727</v>
+        <v>11.77173459214881</v>
       </c>
       <c r="F3">
-        <v>35.24195927817486</v>
+        <v>24.43245255304023</v>
       </c>
       <c r="G3">
-        <v>55.32867260966984</v>
+        <v>32.7612795521915</v>
       </c>
       <c r="H3">
-        <v>13.73973404157243</v>
+        <v>13.02246030310345</v>
       </c>
       <c r="I3">
-        <v>29.15805582509948</v>
+        <v>22.39643268596613</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>38.69516993926227</v>
+        <v>23.87885750131564</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.88582218226239</v>
+        <v>9.28714909023207</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.934148910891951</v>
+        <v>2.913642755365631</v>
       </c>
       <c r="E4">
-        <v>11.29588862801711</v>
+        <v>11.71589878524725</v>
       </c>
       <c r="F4">
-        <v>33.33493517521921</v>
+        <v>23.96036637732659</v>
       </c>
       <c r="G4">
-        <v>52.30227917422988</v>
+        <v>31.73481258460188</v>
       </c>
       <c r="H4">
-        <v>12.99392014532243</v>
+        <v>12.94503947937805</v>
       </c>
       <c r="I4">
-        <v>28.04220074005995</v>
+        <v>21.99100988583047</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>36.86958872971758</v>
+        <v>23.04840067375209</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.62373398836904</v>
+        <v>9.168481786127533</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.870314133011143</v>
+        <v>2.921672301674783</v>
       </c>
       <c r="E5">
-        <v>11.17966279874405</v>
+        <v>11.69432816538348</v>
       </c>
       <c r="F5">
-        <v>32.54287566630315</v>
+        <v>23.76884356831085</v>
       </c>
       <c r="G5">
-        <v>51.04574058463844</v>
+        <v>31.31177770762034</v>
       </c>
       <c r="H5">
-        <v>12.68456871277096</v>
+        <v>12.91495164148984</v>
       </c>
       <c r="I5">
-        <v>27.5796712046593</v>
+        <v>21.82523130715666</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>36.10262399921132</v>
+        <v>22.70099049064921</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.57972680191277</v>
+        <v>9.148609536545472</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.859683772697655</v>
+        <v>2.923033331387367</v>
       </c>
       <c r="E6">
-        <v>11.16034065166139</v>
+        <v>11.69081895170898</v>
       </c>
       <c r="F6">
-        <v>32.41043447890716</v>
+        <v>23.7371040428707</v>
       </c>
       <c r="G6">
-        <v>50.83565688693873</v>
+        <v>31.24127118598442</v>
       </c>
       <c r="H6">
-        <v>12.63286650578127</v>
+        <v>12.9100446003901</v>
       </c>
       <c r="I6">
-        <v>27.50240749418364</v>
+        <v>21.79767857290346</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>35.97386888062803</v>
+        <v>22.64277044459805</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.88232022335763</v>
+        <v>9.285560022396661</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.933289999006489</v>
+        <v>2.913749179129791</v>
       </c>
       <c r="E7">
-        <v>11.29432288392093</v>
+        <v>11.71560303541989</v>
       </c>
       <c r="F7">
-        <v>33.3243144992687</v>
+        <v>23.95777947244494</v>
       </c>
       <c r="G7">
-        <v>52.28542869560901</v>
+        <v>31.72912549450085</v>
       </c>
       <c r="H7">
-        <v>12.98977041641512</v>
+        <v>12.94462775175084</v>
       </c>
       <c r="I7">
-        <v>28.03599406227205</v>
+        <v>21.98877603084314</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>36.85933888841485</v>
+        <v>23.04375133334522</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.14716525071234</v>
+        <v>9.864682509006043</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.254435091896013</v>
+        <v>2.876882507552383</v>
       </c>
       <c r="E8">
-        <v>11.88034779647035</v>
+        <v>11.83524792392404</v>
       </c>
       <c r="F8">
-        <v>37.22791623257739</v>
+        <v>24.93810107920253</v>
       </c>
       <c r="G8">
-        <v>58.48204993055224</v>
+        <v>33.83820698982472</v>
       </c>
       <c r="H8">
-        <v>14.51781127495726</v>
+        <v>13.10999487362308</v>
       </c>
       <c r="I8">
-        <v>30.32124320221015</v>
+        <v>22.8262982364298</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>40.56562349225387</v>
+        <v>24.73339874547408</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.37996719708709</v>
+        <v>10.90307068692021</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.880355901145097</v>
+        <v>2.932338788683972</v>
       </c>
       <c r="E9">
-        <v>13.32954042208918</v>
+        <v>12.10406345834376</v>
       </c>
       <c r="F9">
-        <v>44.4775854208292</v>
+        <v>26.86066996121955</v>
       </c>
       <c r="G9">
-        <v>70.01043482374811</v>
+        <v>37.77115625393429</v>
       </c>
       <c r="H9">
-        <v>17.36874507142296</v>
+        <v>13.47810137867279</v>
       </c>
       <c r="I9">
-        <v>34.54074567214088</v>
+        <v>24.42974288607718</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>47.14057369636375</v>
+        <v>27.74217786234776</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.87629152971707</v>
+        <v>11.60209838997689</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.349325271711346</v>
+        <v>3.049903574550303</v>
       </c>
       <c r="E10">
-        <v>14.46050232786582</v>
+        <v>12.31977491248985</v>
       </c>
       <c r="F10">
-        <v>49.63277726645531</v>
+        <v>28.25425879291204</v>
       </c>
       <c r="G10">
-        <v>78.22653749933832</v>
+        <v>40.50434255126634</v>
       </c>
       <c r="H10">
-        <v>19.40497785042955</v>
+        <v>13.77311535413574</v>
       </c>
       <c r="I10">
-        <v>37.4810385117908</v>
+        <v>25.56945878114082</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>51.58397459439781</v>
+        <v>29.75539814133916</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52759121155121</v>
+        <v>11.90551379057778</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.568035442570249</v>
+        <v>3.101605663351244</v>
       </c>
       <c r="E11">
-        <v>14.9495375484911</v>
+        <v>12.4212776352472</v>
       </c>
       <c r="F11">
-        <v>51.96364274029386</v>
+        <v>28.88057165597921</v>
       </c>
       <c r="G11">
-        <v>81.94681566453755</v>
+        <v>41.70848881488035</v>
       </c>
       <c r="H11">
-        <v>20.32787984213575</v>
+        <v>13.91214299820716</v>
       </c>
       <c r="I11">
-        <v>38.78635178702298</v>
+        <v>26.07693247716532</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53.53135903047818</v>
+        <v>30.62669459106529</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77018415366261</v>
+        <v>12.01826643810643</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.651998195816005</v>
+        <v>3.120926630087684</v>
       </c>
       <c r="E12">
-        <v>15.13109174540965</v>
+        <v>12.46014965706386</v>
       </c>
       <c r="F12">
-        <v>52.84671896297002</v>
+        <v>29.11637924825481</v>
       </c>
       <c r="G12">
-        <v>83.35721023326703</v>
+        <v>42.15848059746776</v>
       </c>
       <c r="H12">
-        <v>20.67788528230173</v>
+        <v>13.96543662637874</v>
       </c>
       <c r="I12">
-        <v>39.27636799385144</v>
+        <v>26.26732260944767</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>54.25921347290708</v>
+        <v>30.95012243913871</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.71811379484738</v>
+        <v>11.9940791780448</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.633857643277286</v>
+        <v>3.116776989849516</v>
       </c>
       <c r="E13">
-        <v>15.09215166174327</v>
+        <v>12.45175931686189</v>
       </c>
       <c r="F13">
-        <v>52.65646757892224</v>
+        <v>29.06565846046692</v>
       </c>
       <c r="G13">
-        <v>83.05330909924204</v>
+        <v>42.06183837640994</v>
       </c>
       <c r="H13">
-        <v>20.60246329126358</v>
+        <v>13.95393088015437</v>
       </c>
       <c r="I13">
-        <v>39.17101721844754</v>
+        <v>26.22640077612718</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>54.10286356246697</v>
+        <v>30.88075764899681</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.54762926760231</v>
+        <v>11.91483323700988</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.574917777192947</v>
+        <v>3.103200380002509</v>
       </c>
       <c r="E14">
-        <v>14.96454668146879</v>
+        <v>12.42446722623619</v>
       </c>
       <c r="F14">
-        <v>52.03626899845805</v>
+        <v>28.90000044435813</v>
       </c>
       <c r="G14">
-        <v>82.06279048005123</v>
+        <v>41.7456318361323</v>
       </c>
       <c r="H14">
-        <v>20.35665784226261</v>
+        <v>13.91651480590185</v>
       </c>
       <c r="I14">
-        <v>38.82674887544606</v>
+        <v>26.09263271473468</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>53.59142510496009</v>
+        <v>30.65343427717428</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.44268249837553</v>
+        <v>11.8660122906227</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.538976643574629</v>
+        <v>3.094850736511713</v>
       </c>
       <c r="E15">
-        <v>14.88591308735943</v>
+        <v>12.40780521257456</v>
       </c>
       <c r="F15">
-        <v>51.656519072644</v>
+        <v>28.79834511885638</v>
       </c>
       <c r="G15">
-        <v>81.4564166983985</v>
+        <v>41.55115626049808</v>
       </c>
       <c r="H15">
-        <v>20.20619719215207</v>
+        <v>13.89367920839207</v>
       </c>
       <c r="I15">
-        <v>38.61533060154733</v>
+        <v>26.01045864703202</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>53.27694234440813</v>
+        <v>30.5133410677118</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.83315138054681</v>
+        <v>11.58197185804948</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.335169745260996</v>
+        <v>3.046488774449749</v>
       </c>
       <c r="E16">
-        <v>14.42803232563296</v>
+        <v>12.31320509445631</v>
       </c>
       <c r="F16">
-        <v>49.4803614568827</v>
+        <v>28.21315083678567</v>
       </c>
       <c r="G16">
-        <v>77.98338889643695</v>
+        <v>40.42482826316802</v>
       </c>
       <c r="H16">
-        <v>19.3446766814999</v>
+        <v>13.76412267604982</v>
       </c>
       <c r="I16">
-        <v>37.39511189783574</v>
+        <v>25.53605560159054</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>51.45530552619546</v>
+        <v>29.69755089184833</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.45181959148397</v>
+        <v>11.40395193272922</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.211753103374186</v>
+        <v>3.016363371999643</v>
       </c>
       <c r="E17">
-        <v>14.14063035214609</v>
+        <v>12.25599968458712</v>
       </c>
       <c r="F17">
-        <v>48.14329353508205</v>
+        <v>27.85200017895455</v>
       </c>
       <c r="G17">
-        <v>75.85099386089045</v>
+        <v>39.7235513372574</v>
       </c>
       <c r="H17">
-        <v>18.8159386398295</v>
+        <v>13.68584670496765</v>
       </c>
       <c r="I17">
-        <v>36.63850099125092</v>
+        <v>25.24206237459943</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>50.31953306901057</v>
+        <v>29.18559929270423</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.22970889596139</v>
+        <v>11.30018991646247</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.141246329471039</v>
+        <v>2.998868695134167</v>
       </c>
       <c r="E18">
-        <v>13.97292613955576</v>
+        <v>12.22341729031098</v>
       </c>
       <c r="F18">
-        <v>47.37272717822122</v>
+        <v>27.64357122478443</v>
       </c>
       <c r="G18">
-        <v>74.62257731485091</v>
+        <v>39.31652350509435</v>
       </c>
       <c r="H18">
-        <v>18.5114305023566</v>
+        <v>13.64128143907342</v>
       </c>
       <c r="I18">
-        <v>36.20025424127293</v>
+        <v>25.07194155436796</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>49.65923226699067</v>
+        <v>28.88695203792996</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.15402363695707</v>
+        <v>11.26482425229028</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.117446396576217</v>
+        <v>2.992916615056108</v>
       </c>
       <c r="E19">
-        <v>13.91573212282319</v>
+        <v>12.2124420462703</v>
       </c>
       <c r="F19">
-        <v>47.11149927678931</v>
+        <v>27.57288823354594</v>
       </c>
       <c r="G19">
-        <v>74.20621753555596</v>
+        <v>39.17809206378842</v>
       </c>
       <c r="H19">
-        <v>18.40823499961351</v>
+        <v>13.62627229949954</v>
       </c>
       <c r="I19">
-        <v>36.0513364901065</v>
+        <v>25.01417213318998</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>49.43442907010243</v>
+        <v>28.78511997400702</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.49269935754497</v>
+        <v>11.42304458930191</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.224839023643031</v>
+        <v>3.019587605321644</v>
       </c>
       <c r="E20">
-        <v>14.17147288348712</v>
+        <v>12.26205647522483</v>
       </c>
       <c r="F20">
-        <v>48.28576793683598</v>
+        <v>27.89052021283171</v>
       </c>
       <c r="G20">
-        <v>76.0781630172286</v>
+        <v>39.7985862591359</v>
       </c>
       <c r="H20">
-        <v>18.87225772612712</v>
+        <v>13.69413235258483</v>
       </c>
       <c r="I20">
-        <v>36.71935849328033</v>
+        <v>25.27346590742311</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>50.44115911992105</v>
+        <v>29.24053154771006</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.5978127095156</v>
+        <v>11.9381682250162</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.592195449156292</v>
+        <v>3.107195159612337</v>
       </c>
       <c r="E21">
-        <v>15.00212560677908</v>
+        <v>12.43247216480549</v>
       </c>
       <c r="F21">
-        <v>52.21840194736992</v>
+        <v>28.94869721261444</v>
       </c>
       <c r="G21">
-        <v>82.35364863380642</v>
+        <v>41.83867453942179</v>
       </c>
       <c r="H21">
-        <v>20.42883337453003</v>
+        <v>13.92748763794248</v>
       </c>
       <c r="I21">
-        <v>38.92798134932447</v>
+        <v>26.13197341106211</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>53.74189731031603</v>
+        <v>30.72038219063822</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29663104195014</v>
+        <v>12.26231681362551</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.839184569921767</v>
+        <v>3.162950349112499</v>
       </c>
       <c r="E22">
-        <v>15.52386254856281</v>
+        <v>12.54636180128569</v>
       </c>
       <c r="F22">
-        <v>54.792730177326</v>
+        <v>29.63222425889033</v>
       </c>
       <c r="G22">
-        <v>86.46708882775242</v>
+        <v>43.13693719033708</v>
       </c>
       <c r="H22">
-        <v>21.44985781192995</v>
+        <v>14.08374672062176</v>
       </c>
       <c r="I22">
-        <v>40.37508794720163</v>
+        <v>26.68260884158459</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>55.84397289812535</v>
+        <v>31.64955081464873</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.92573263954311</v>
+        <v>12.09047145416368</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.706582724485375</v>
+        <v>3.133330610747493</v>
       </c>
       <c r="E23">
-        <v>15.24732035975807</v>
+        <v>12.48536336224589</v>
       </c>
       <c r="F23">
-        <v>53.41739718229002</v>
+        <v>29.26823095592911</v>
       </c>
       <c r="G23">
-        <v>84.26893628813838</v>
+        <v>42.44734021357969</v>
       </c>
       <c r="H23">
-        <v>20.90417447557431</v>
+        <v>14.00002117707369</v>
       </c>
       <c r="I23">
-        <v>39.59164202837385</v>
+        <v>26.38974113282558</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54.72668621331717</v>
+        <v>31.15714349419325</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.47422659311964</v>
+        <v>11.41441720601215</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.218921513078277</v>
+        <v>3.01813047495417</v>
       </c>
       <c r="E24">
-        <v>14.1575366795033</v>
+        <v>12.25931724401173</v>
       </c>
       <c r="F24">
-        <v>48.22136125754946</v>
+        <v>27.87310777267016</v>
       </c>
       <c r="G24">
-        <v>75.9754678432728</v>
+        <v>39.76467494886479</v>
       </c>
       <c r="H24">
-        <v>18.84679758957481</v>
+        <v>13.6903850477462</v>
       </c>
       <c r="I24">
-        <v>36.68281299928406</v>
+        <v>25.25927178179603</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>50.38619489022921</v>
+        <v>29.21571012077768</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.80180296146642</v>
+        <v>10.63309556145748</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.710394817806101</v>
+        <v>2.887480468477375</v>
       </c>
       <c r="E25">
-        <v>12.89046601191361</v>
+        <v>12.02794758938302</v>
       </c>
       <c r="F25">
-        <v>42.55289521735477</v>
+        <v>26.34259771493313</v>
       </c>
       <c r="G25">
-        <v>66.94700416026269</v>
+        <v>36.73260610919532</v>
       </c>
       <c r="H25">
-        <v>16.61035233316804</v>
+        <v>13.37403715846994</v>
       </c>
       <c r="I25">
-        <v>33.42773082585514</v>
+        <v>24.00172101147773</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>45.43279859412662</v>
+        <v>26.96218702983339</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.01521461658088</v>
+        <v>14.47290818308336</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.867914741673182</v>
+        <v>3.340839681391332</v>
       </c>
       <c r="E2">
-        <v>11.87007386421528</v>
+        <v>12.0372944083128</v>
       </c>
       <c r="F2">
-        <v>25.20448700891164</v>
+        <v>38.25590228356984</v>
       </c>
       <c r="G2">
-        <v>34.39733788583185</v>
+        <v>60.1150646547522</v>
       </c>
       <c r="H2">
-        <v>13.15783889656919</v>
+        <v>14.92108826808132</v>
       </c>
       <c r="I2">
-        <v>23.05117789907865</v>
+        <v>30.92296942000112</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25.17112204216522</v>
+        <v>41.5218324117612</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.57139117380574</v>
+        <v>13.50923066241441</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.895077600296976</v>
+        <v>3.08968153346956</v>
       </c>
       <c r="E3">
-        <v>11.77173459214881</v>
+        <v>11.5798391520173</v>
       </c>
       <c r="F3">
-        <v>24.43245255304023</v>
+        <v>35.24195927817487</v>
       </c>
       <c r="G3">
-        <v>32.7612795521915</v>
+        <v>55.32867260966972</v>
       </c>
       <c r="H3">
-        <v>13.02246030310345</v>
+        <v>13.73973404157245</v>
       </c>
       <c r="I3">
-        <v>22.39643268596613</v>
+        <v>29.15805582509952</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.87885750131564</v>
+        <v>38.69516993926229</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.28714909023207</v>
+        <v>12.88582218226244</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.913642755365631</v>
+        <v>2.934148910891942</v>
       </c>
       <c r="E4">
-        <v>11.71589878524725</v>
+        <v>11.29588862801715</v>
       </c>
       <c r="F4">
-        <v>23.96036637732659</v>
+        <v>33.33493517521926</v>
       </c>
       <c r="G4">
-        <v>31.73481258460188</v>
+        <v>52.30227917422989</v>
       </c>
       <c r="H4">
-        <v>12.94503947937805</v>
+        <v>12.99392014532243</v>
       </c>
       <c r="I4">
-        <v>21.99100988583047</v>
+        <v>28.04220074006003</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.04840067375209</v>
+        <v>36.86958872971763</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.168481786127533</v>
+        <v>12.62373398836909</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.921672301674783</v>
+        <v>2.870314133010975</v>
       </c>
       <c r="E5">
-        <v>11.69432816538348</v>
+        <v>11.17966279874401</v>
       </c>
       <c r="F5">
-        <v>23.76884356831085</v>
+        <v>32.54287566630322</v>
       </c>
       <c r="G5">
-        <v>31.31177770762034</v>
+        <v>51.04574058463852</v>
       </c>
       <c r="H5">
-        <v>12.91495164148984</v>
+        <v>12.68456871277097</v>
       </c>
       <c r="I5">
-        <v>21.82523130715666</v>
+        <v>27.57967120465926</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>22.70099049064921</v>
+        <v>36.10262399921137</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.148609536545472</v>
+        <v>12.57972680191279</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.923033331387367</v>
+        <v>2.85968377269747</v>
       </c>
       <c r="E6">
-        <v>11.69081895170898</v>
+        <v>11.16034065166135</v>
       </c>
       <c r="F6">
-        <v>23.7371040428707</v>
+        <v>32.41043447890721</v>
       </c>
       <c r="G6">
-        <v>31.24127118598442</v>
+        <v>50.83565688693869</v>
       </c>
       <c r="H6">
-        <v>12.9100446003901</v>
+        <v>12.63286650578132</v>
       </c>
       <c r="I6">
-        <v>21.79767857290346</v>
+        <v>27.50240749418358</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22.64277044459805</v>
+        <v>35.97386888062803</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.285560022396661</v>
+        <v>12.88232022335759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.913749179129791</v>
+        <v>2.933289999006423</v>
       </c>
       <c r="E7">
-        <v>11.71560303541989</v>
+        <v>11.29432288392091</v>
       </c>
       <c r="F7">
-        <v>23.95777947244494</v>
+        <v>33.3243144992687</v>
       </c>
       <c r="G7">
-        <v>31.72912549450085</v>
+        <v>52.28542869560896</v>
       </c>
       <c r="H7">
-        <v>12.94462775175084</v>
+        <v>12.9897704164151</v>
       </c>
       <c r="I7">
-        <v>21.98877603084314</v>
+        <v>28.03599406227204</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.04375133334522</v>
+        <v>36.85933888841481</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.864682509006043</v>
+        <v>14.1471652507123</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.876882507552383</v>
+        <v>3.254435091895973</v>
       </c>
       <c r="E8">
-        <v>11.83524792392404</v>
+        <v>11.88034779647029</v>
       </c>
       <c r="F8">
-        <v>24.93810107920253</v>
+        <v>37.22791623257745</v>
       </c>
       <c r="G8">
-        <v>33.83820698982472</v>
+        <v>58.48204993055231</v>
       </c>
       <c r="H8">
-        <v>13.10999487362308</v>
+        <v>14.51781127495728</v>
       </c>
       <c r="I8">
-        <v>22.8262982364298</v>
+        <v>30.32124320221007</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24.73339874547408</v>
+        <v>40.56562349225385</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.90307068692021</v>
+        <v>16.37996719708713</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.932338788683972</v>
+        <v>3.880355901145199</v>
       </c>
       <c r="E9">
-        <v>12.10406345834376</v>
+        <v>13.32954042208922</v>
       </c>
       <c r="F9">
-        <v>26.86066996121955</v>
+        <v>44.47758542082926</v>
       </c>
       <c r="G9">
-        <v>37.77115625393429</v>
+        <v>70.0104348237482</v>
       </c>
       <c r="H9">
-        <v>13.47810137867279</v>
+        <v>17.36874507142301</v>
       </c>
       <c r="I9">
-        <v>24.42974288607718</v>
+        <v>34.54074567214106</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>27.74217786234776</v>
+        <v>47.14057369636389</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.60209838997689</v>
+        <v>17.87629152971708</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.049903574550303</v>
+        <v>4.349325271711286</v>
       </c>
       <c r="E10">
-        <v>12.31977491248985</v>
+        <v>14.46050232786584</v>
       </c>
       <c r="F10">
-        <v>28.25425879291204</v>
+        <v>49.6327772664551</v>
       </c>
       <c r="G10">
-        <v>40.50434255126634</v>
+        <v>78.22653749933795</v>
       </c>
       <c r="H10">
-        <v>13.77311535413574</v>
+        <v>19.40497785042945</v>
       </c>
       <c r="I10">
-        <v>25.56945878114082</v>
+        <v>37.48103851179083</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>29.75539814133916</v>
+        <v>51.58397459439773</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.90551379057778</v>
+        <v>18.52759121155113</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.101605663351244</v>
+        <v>4.568035442570316</v>
       </c>
       <c r="E11">
-        <v>12.4212776352472</v>
+        <v>14.949537548491</v>
       </c>
       <c r="F11">
-        <v>28.88057165597921</v>
+        <v>51.96364274029391</v>
       </c>
       <c r="G11">
-        <v>41.70848881488035</v>
+        <v>81.94681566453768</v>
       </c>
       <c r="H11">
-        <v>13.91214299820716</v>
+        <v>20.32787984213575</v>
       </c>
       <c r="I11">
-        <v>26.07693247716532</v>
+        <v>38.78635178702288</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>30.62669459106529</v>
+        <v>53.53135903047813</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.01826643810643</v>
+        <v>18.77018415366258</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.120926630087684</v>
+        <v>4.651998195815813</v>
       </c>
       <c r="E12">
-        <v>12.46014965706386</v>
+        <v>15.13109174540953</v>
       </c>
       <c r="F12">
-        <v>29.11637924825481</v>
+        <v>52.84671896296999</v>
       </c>
       <c r="G12">
-        <v>42.15848059746776</v>
+        <v>83.3572102332669</v>
       </c>
       <c r="H12">
-        <v>13.96543662637874</v>
+        <v>20.67788528230169</v>
       </c>
       <c r="I12">
-        <v>26.26732260944767</v>
+        <v>39.27636799385116</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.95012243913871</v>
+        <v>54.25921347290693</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.9940791780448</v>
+        <v>18.71811379484734</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.116776989849516</v>
+        <v>4.633857643277421</v>
       </c>
       <c r="E13">
-        <v>12.45175931686189</v>
+        <v>15.09215166174324</v>
       </c>
       <c r="F13">
-        <v>29.06565846046692</v>
+        <v>52.6564675789221</v>
       </c>
       <c r="G13">
-        <v>42.06183837640994</v>
+        <v>83.05330909924187</v>
       </c>
       <c r="H13">
-        <v>13.95393088015437</v>
+        <v>20.60246329126355</v>
       </c>
       <c r="I13">
-        <v>26.22640077612718</v>
+        <v>39.17101721844745</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30.88075764899681</v>
+        <v>54.10286356246691</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.91483323700988</v>
+        <v>18.54762926760235</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.103200380002509</v>
+        <v>4.574917777192829</v>
       </c>
       <c r="E14">
-        <v>12.42446722623619</v>
+        <v>14.96454668146891</v>
       </c>
       <c r="F14">
-        <v>28.90000044435813</v>
+        <v>52.03626899845807</v>
       </c>
       <c r="G14">
-        <v>41.7456318361323</v>
+        <v>82.06279048005133</v>
       </c>
       <c r="H14">
-        <v>13.91651480590185</v>
+        <v>20.35665784226262</v>
       </c>
       <c r="I14">
-        <v>26.09263271473468</v>
+        <v>38.82674887544624</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>30.65343427717428</v>
+        <v>53.59142510496024</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.8660122906227</v>
+        <v>18.4426824983755</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.094850736511713</v>
+        <v>4.538976643574562</v>
       </c>
       <c r="E15">
-        <v>12.40780521257456</v>
+        <v>14.88591308735943</v>
       </c>
       <c r="F15">
-        <v>28.79834511885638</v>
+        <v>51.65651907264402</v>
       </c>
       <c r="G15">
-        <v>41.55115626049808</v>
+        <v>81.45641669839851</v>
       </c>
       <c r="H15">
-        <v>13.89367920839207</v>
+        <v>20.20619719215209</v>
       </c>
       <c r="I15">
-        <v>26.01045864703202</v>
+        <v>38.61533060154733</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>30.5133410677118</v>
+        <v>53.27694234440813</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.58197185804948</v>
+        <v>17.83315138054681</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.046488774449749</v>
+        <v>4.335169745260992</v>
       </c>
       <c r="E16">
-        <v>12.31320509445631</v>
+        <v>14.4280323256329</v>
       </c>
       <c r="F16">
-        <v>28.21315083678567</v>
+        <v>49.48036145688295</v>
       </c>
       <c r="G16">
-        <v>40.42482826316802</v>
+        <v>77.98338889643726</v>
       </c>
       <c r="H16">
-        <v>13.76412267604982</v>
+        <v>19.34467668150003</v>
       </c>
       <c r="I16">
-        <v>25.53605560159054</v>
+        <v>37.39511189783574</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>29.69755089184833</v>
+        <v>51.45530552619552</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.40395193272922</v>
+        <v>17.45181959148395</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.016363371999643</v>
+        <v>4.211753103374189</v>
       </c>
       <c r="E17">
-        <v>12.25599968458712</v>
+        <v>14.14063035214599</v>
       </c>
       <c r="F17">
-        <v>27.85200017895455</v>
+        <v>48.14329353508237</v>
       </c>
       <c r="G17">
-        <v>39.7235513372574</v>
+        <v>75.8509938608909</v>
       </c>
       <c r="H17">
-        <v>13.68584670496765</v>
+        <v>18.81593863982958</v>
       </c>
       <c r="I17">
-        <v>25.24206237459943</v>
+        <v>36.63850099125073</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>29.18559929270423</v>
+        <v>50.31953306901057</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.30018991646247</v>
+        <v>17.22970889596143</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.998868695134167</v>
+        <v>4.14124632947099</v>
       </c>
       <c r="E18">
-        <v>12.22341729031098</v>
+        <v>13.97292613955578</v>
       </c>
       <c r="F18">
-        <v>27.64357122478443</v>
+        <v>47.37272717822097</v>
       </c>
       <c r="G18">
-        <v>39.31652350509435</v>
+        <v>74.62257731485057</v>
       </c>
       <c r="H18">
-        <v>13.64128143907342</v>
+        <v>18.51143050235649</v>
       </c>
       <c r="I18">
-        <v>25.07194155436796</v>
+        <v>36.20025424127291</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.88695203792996</v>
+        <v>49.65923226699059</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.26482425229028</v>
+        <v>17.15402363695699</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.992916615056108</v>
+        <v>4.117446396576164</v>
       </c>
       <c r="E19">
-        <v>12.2124420462703</v>
+        <v>13.91573212282315</v>
       </c>
       <c r="F19">
-        <v>27.57288823354594</v>
+        <v>47.1114992767893</v>
       </c>
       <c r="G19">
-        <v>39.17809206378842</v>
+        <v>74.20621753555591</v>
       </c>
       <c r="H19">
-        <v>13.62627229949954</v>
+        <v>18.40823499961351</v>
       </c>
       <c r="I19">
-        <v>25.01417213318998</v>
+        <v>36.05133649010644</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28.78511997400702</v>
+        <v>49.43442907010237</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.42304458930191</v>
+        <v>17.4926993575449</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.019587605321644</v>
+        <v>4.224839023642986</v>
       </c>
       <c r="E20">
-        <v>12.26205647522483</v>
+        <v>14.17147288348704</v>
       </c>
       <c r="F20">
-        <v>27.89052021283171</v>
+        <v>48.28576793683599</v>
       </c>
       <c r="G20">
-        <v>39.7985862591359</v>
+        <v>76.07816301722859</v>
       </c>
       <c r="H20">
-        <v>13.69413235258483</v>
+        <v>18.87225772612715</v>
       </c>
       <c r="I20">
-        <v>25.27346590742311</v>
+        <v>36.71935849328022</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>29.24053154771006</v>
+        <v>50.441159119921</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.9381682250162</v>
+        <v>18.59781270951562</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.107195159612337</v>
+        <v>4.592195449156274</v>
       </c>
       <c r="E21">
-        <v>12.43247216480549</v>
+        <v>15.00212560677913</v>
       </c>
       <c r="F21">
-        <v>28.94869721261444</v>
+        <v>52.21840194736986</v>
       </c>
       <c r="G21">
-        <v>41.83867453942179</v>
+        <v>82.35364863380632</v>
       </c>
       <c r="H21">
-        <v>13.92748763794248</v>
+        <v>20.42883337453</v>
       </c>
       <c r="I21">
-        <v>26.13197341106211</v>
+        <v>38.92798134932464</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>30.72038219063822</v>
+        <v>53.7418973103161</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.26231681362551</v>
+        <v>19.29663104195015</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.162950349112499</v>
+        <v>4.839184569921768</v>
       </c>
       <c r="E22">
-        <v>12.54636180128569</v>
+        <v>15.52386254856277</v>
       </c>
       <c r="F22">
-        <v>29.63222425889033</v>
+        <v>54.79273017732596</v>
       </c>
       <c r="G22">
-        <v>43.13693719033708</v>
+        <v>86.46708882775246</v>
       </c>
       <c r="H22">
-        <v>14.08374672062176</v>
+        <v>21.44985781192995</v>
       </c>
       <c r="I22">
-        <v>26.68260884158459</v>
+        <v>40.37508794720151</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>31.64955081464873</v>
+        <v>55.84397289812532</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.09047145416368</v>
+        <v>18.92573263954315</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.133330610747493</v>
+        <v>4.706582724485313</v>
       </c>
       <c r="E23">
-        <v>12.48536336224589</v>
+        <v>15.24732035975811</v>
       </c>
       <c r="F23">
-        <v>29.26823095592911</v>
+        <v>53.41739718229</v>
       </c>
       <c r="G23">
-        <v>42.44734021357969</v>
+        <v>84.26893628813832</v>
       </c>
       <c r="H23">
-        <v>14.00002117707369</v>
+        <v>20.90417447557426</v>
       </c>
       <c r="I23">
-        <v>26.38974113282558</v>
+        <v>39.59164202837387</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>31.15714349419325</v>
+        <v>54.72668621331712</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.41441720601215</v>
+        <v>17.47422659311963</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.01813047495417</v>
+        <v>4.21892151307821</v>
       </c>
       <c r="E24">
-        <v>12.25931724401173</v>
+        <v>14.15753667950325</v>
       </c>
       <c r="F24">
-        <v>27.87310777267016</v>
+        <v>48.22136125754955</v>
       </c>
       <c r="G24">
-        <v>39.76467494886479</v>
+        <v>75.97546784327291</v>
       </c>
       <c r="H24">
-        <v>13.6903850477462</v>
+        <v>18.84679758957482</v>
       </c>
       <c r="I24">
-        <v>25.25927178179603</v>
+        <v>36.68281299928399</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>29.21571012077768</v>
+        <v>50.38619489022915</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.63309556145748</v>
+        <v>15.80180296146637</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.887480468477375</v>
+        <v>3.710394817806022</v>
       </c>
       <c r="E25">
-        <v>12.02794758938302</v>
+        <v>12.89046601191355</v>
       </c>
       <c r="F25">
-        <v>26.34259771493313</v>
+        <v>42.55289521735475</v>
       </c>
       <c r="G25">
-        <v>36.73260610919532</v>
+        <v>66.94700416026264</v>
       </c>
       <c r="H25">
-        <v>13.37403715846994</v>
+        <v>16.61035233316801</v>
       </c>
       <c r="I25">
-        <v>24.00172101147773</v>
+        <v>33.42773082585507</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26.96218702983339</v>
+        <v>45.43279859412655</v>
       </c>
       <c r="N25">
         <v>0</v>
